--- a/data/case1/11/P_device_13.xlsx
+++ b/data/case1/11/P_device_13.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.040387474861201179</v>
+        <v>0.012952780382252598</v>
       </c>
       <c r="B1" s="0">
-        <v>0.040387474171237385</v>
+        <v>-0.012952780721271543</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0067050880446058326</v>
+        <v>-0.047757753377730507</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0067050887173463703</v>
+        <v>0.047757753063317601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.00098559050398533106</v>
+        <v>-0.00084126544920254029</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.00098559120289176249</v>
+        <v>0.00084126511792744516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.016248449034773536</v>
+        <v>0.025852928142408835</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.016248449758109098</v>
+        <v>-0.025852928462596125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0036503099595665174</v>
+        <v>-0.00062626862750260795</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0036503107007534365</v>
+        <v>0.00062626828076670288</v>
       </c>
     </row>
   </sheetData>
